--- a/data/trans_dic/P40_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.9540840247148579</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.928257237172553</v>
+        <v>0.9282572371725527</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9414801001784627</v>
+        <v>0.9420926865825568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9597946347769974</v>
+        <v>0.9593051740562171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9250550671194692</v>
+        <v>0.9285440899883287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.929935914247787</v>
+        <v>0.9341183572737531</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8971287951625002</v>
+        <v>0.8946236887411775</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8966799657719926</v>
+        <v>0.8957704583842444</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9271241643793914</v>
+        <v>0.9319801667398658</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8170238866212239</v>
+        <v>0.8260816347994945</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9268570273220388</v>
+        <v>0.9269465803390319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9345482302967336</v>
+        <v>0.9341878874749244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9369089274979455</v>
+        <v>0.9371034733932787</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8957708488472627</v>
+        <v>0.8951771819311969</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9748835376020261</v>
+        <v>0.9740670836213973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9885508077127831</v>
+        <v>0.9885649790331121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.972627402732349</v>
+        <v>0.9717641707387301</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9919425918945539</v>
+        <v>0.9920779324950029</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9434981384050852</v>
+        <v>0.9435696401424017</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9482294944860009</v>
+        <v>0.948259340895783</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9715608126618551</v>
+        <v>0.9733631452658732</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9183113332106164</v>
+        <v>0.9209906045071439</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9557479306029978</v>
+        <v>0.9562690174024665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9637865324023522</v>
+        <v>0.9644854651588398</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9672526222845376</v>
+        <v>0.9680229390290711</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9519145550670742</v>
+        <v>0.9517205516136404</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9546359001033559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9312918023968144</v>
+        <v>0.9312918023968145</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8692352047435707</v>
@@ -833,7 +833,7 @@
         <v>0.9454098133585166</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9311630751981802</v>
+        <v>0.9311630751981801</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9323591184865803</v>
+        <v>0.9328420197134575</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9130419356488468</v>
+        <v>0.9132749623757201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9344205406588867</v>
+        <v>0.9332090282808971</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8966454916386113</v>
+        <v>0.8956715939749521</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8404778037352643</v>
+        <v>0.8403052928738347</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8794952183265677</v>
+        <v>0.8831635932672899</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9146665769121191</v>
+        <v>0.9118431959492546</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9041184504843178</v>
+        <v>0.9047129797056492</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8969705010657185</v>
+        <v>0.8968994049692987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9058916679730518</v>
+        <v>0.9066555579807237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9282851343356726</v>
+        <v>0.9311453589136998</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.908761159866202</v>
+        <v>0.9103871993916638</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9652534394728501</v>
+        <v>0.9653123751759042</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9531647916890191</v>
+        <v>0.9532904256227388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9702663436505427</v>
+        <v>0.9699369872062178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9561090028869141</v>
+        <v>0.956423300418506</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8941997048776403</v>
+        <v>0.8937075253663106</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9310511531990946</v>
+        <v>0.9311577129079834</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9554288186851516</v>
+        <v>0.9523365972419159</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9521058640626279</v>
+        <v>0.9516785484149055</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.929185473474285</v>
+        <v>0.9269636506525117</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9361113549414668</v>
+        <v>0.9368643983500625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9568292771844074</v>
+        <v>0.9575985177812377</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9479982622713815</v>
+        <v>0.9477132028639434</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8621613016339352</v>
+        <v>0.8616599259475731</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8777068187310619</v>
+        <v>0.874996125079859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8979263887306963</v>
+        <v>0.8932594821911881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9008870471866717</v>
+        <v>0.9012990499633287</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7776290739282398</v>
+        <v>0.77807598962182</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8076096094292761</v>
+        <v>0.8046942553791566</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8714872236093449</v>
+        <v>0.8723548096640243</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8445582583870146</v>
+        <v>0.8453031913994883</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8270628108310712</v>
+        <v>0.8285128430010348</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8511316000400971</v>
+        <v>0.850783292768821</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8911769873890589</v>
+        <v>0.8905464305555276</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.879633118145317</v>
+        <v>0.8771575669653504</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9145173298739359</v>
+        <v>0.9135363233415688</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.923897072949716</v>
+        <v>0.9255597927543299</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9424349704811036</v>
+        <v>0.9389190698564274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9446299613786633</v>
+        <v>0.9442974362661469</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8387443517024101</v>
+        <v>0.8399774392868401</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8662203397354451</v>
+        <v>0.8642031056998506</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9176975227365518</v>
+        <v>0.9179693136073219</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8880224733208825</v>
+        <v>0.8903065302197547</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8678375206482077</v>
+        <v>0.8682687850730004</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8891281306174902</v>
+        <v>0.8884098731405288</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.923279811990414</v>
+        <v>0.9235855511157219</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9120609110098955</v>
+        <v>0.9094902993640394</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8418836138356527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8201938093393621</v>
+        <v>0.8201938093393619</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7296315250160362</v>
@@ -1105,7 +1105,7 @@
         <v>0.8156616198136121</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7928951318621447</v>
+        <v>0.7928951318621449</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8344673131277648</v>
+        <v>0.8344816258406853</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8143122159568138</v>
+        <v>0.8131344180013113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8142035309998655</v>
+        <v>0.8091990905609479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7882354740104108</v>
+        <v>0.7884620597295082</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6905322935287733</v>
+        <v>0.6886906091853804</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7226738331285061</v>
+        <v>0.7229046801246484</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7532932107542903</v>
+        <v>0.7517672951214504</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7385277207915888</v>
+        <v>0.7424671774404832</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7727220390462627</v>
+        <v>0.7714193453863071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7803284847434696</v>
+        <v>0.7780257073819071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7910156691900865</v>
+        <v>0.7940815611794251</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7727959280081141</v>
+        <v>0.7732772147037577</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8956766080106419</v>
+        <v>0.8968528596607857</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8720623059872926</v>
+        <v>0.8759397564927071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8746141967920377</v>
+        <v>0.8686923090747131</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.846972470457971</v>
+        <v>0.8472470380914436</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7672825524879574</v>
+        <v>0.7671876647176009</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.796460266627022</v>
+        <v>0.7949102482129047</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8217482593571933</v>
+        <v>0.8203257704487145</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7892410463630748</v>
+        <v>0.7915302865052458</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8247539648827531</v>
+        <v>0.8232552952183414</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8287169073384546</v>
+        <v>0.8267063260570185</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8358286288784799</v>
+        <v>0.8363569222157764</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8121095462587292</v>
+        <v>0.8108440981493458</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7630701488711488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7060831841335711</v>
+        <v>0.706083184133571</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6102051942502864</v>
@@ -1229,7 +1229,7 @@
         <v>0.6195527119822603</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6468716953164825</v>
+        <v>0.6468716953164827</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6604957484295356</v>
@@ -1241,7 +1241,7 @@
         <v>0.689673160731448</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6764893734679106</v>
+        <v>0.6764893734679105</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6662596333780112</v>
+        <v>0.6646536612649829</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6795034602843065</v>
+        <v>0.6792695060926577</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7162628932451576</v>
+        <v>0.7201733610997876</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6681081638350496</v>
+        <v>0.670043315734308</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5624146765260796</v>
+        <v>0.5593274029774101</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5695948972952295</v>
+        <v>0.5720473433653304</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5733092817860702</v>
+        <v>0.5708985349717557</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6163403869043689</v>
+        <v>0.6150880427721348</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6273758708348431</v>
+        <v>0.6261515150043719</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6389143276660972</v>
+        <v>0.6398944894344676</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6584646234705124</v>
+        <v>0.6577717679972103</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6533388580558216</v>
+        <v>0.6538350551081563</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7575027404587522</v>
+        <v>0.7539566381062123</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.77003966423982</v>
+        <v>0.7683229283044344</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8003439518664991</v>
+        <v>0.8020981537017412</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7373137928793234</v>
+        <v>0.7388238332876805</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6546892618023623</v>
+        <v>0.6574399698734967</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6658790466910279</v>
+        <v>0.6645988921599446</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6662337111176233</v>
+        <v>0.6638708289171178</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6753440243415103</v>
+        <v>0.675874292015203</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6952462714244232</v>
+        <v>0.6929474353308267</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7054723280852309</v>
+        <v>0.7060672863541534</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7189890775712353</v>
+        <v>0.7236922373014965</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6998941475011884</v>
+        <v>0.6992898929328576</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.5958641928171516</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6371225963514525</v>
+        <v>0.6371225963514527</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5901052365761693</v>
+        <v>0.5937696149848731</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6020671833649033</v>
+        <v>0.5990926328773728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6407714790302474</v>
+        <v>0.6357746572266054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6699077078166958</v>
+        <v>0.6704393300218189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3593762260493844</v>
+        <v>0.3562071160933006</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4470898654463123</v>
+        <v>0.4530380878877126</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.456609222221355</v>
+        <v>0.457362712627106</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5372234441254653</v>
+        <v>0.5419732040273871</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4821398659938957</v>
+        <v>0.4777180416814499</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5384315864801339</v>
+        <v>0.5419519859428299</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5558520359153252</v>
+        <v>0.5565229056661102</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6107899638983113</v>
+        <v>0.6101856961965068</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6935025331957203</v>
+        <v>0.7034305375949441</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7167533176701705</v>
+        <v>0.7178605805736697</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7462843034046511</v>
+        <v>0.7387053013054554</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.745820902305761</v>
+        <v>0.7457313646923549</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4614867773556667</v>
+        <v>0.4631145751352814</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5527934229446051</v>
+        <v>0.5616871958674859</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5586230000713049</v>
+        <v>0.5580767904608419</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6044757528701307</v>
+        <v>0.6068971075770653</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.557302120638922</v>
+        <v>0.5538989218460062</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6207059013917429</v>
+        <v>0.6173624929655833</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6305276775138822</v>
+        <v>0.629176942644632</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6625021907821651</v>
+        <v>0.6627252780054902</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3593179027522305</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.368734156444353</v>
+        <v>0.3687341564443529</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3939569424870847</v>
@@ -1513,7 +1513,7 @@
         <v>0.421903423682182</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4369419632144042</v>
+        <v>0.436941963214404</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3978996478458169</v>
+        <v>0.3991511361449106</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.373175350643641</v>
+        <v>0.3805127384478214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4589313441111606</v>
+        <v>0.4628946140370447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4909522038030532</v>
+        <v>0.493351802720958</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2983161206397032</v>
+        <v>0.2982042563240066</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2802900427012282</v>
+        <v>0.2820439151249284</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3039262808769799</v>
+        <v>0.3028240015172589</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3330640457791678</v>
+        <v>0.3377909733764912</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3522777257284936</v>
+        <v>0.3515192069292723</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3403962794229</v>
+        <v>0.3380123294212354</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3830315924120025</v>
+        <v>0.3793673061532929</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4110578999575167</v>
+        <v>0.4103977509999936</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5307639840660785</v>
+        <v>0.5332182955655365</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5133528579526986</v>
+        <v>0.5163367509931682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5733178672019215</v>
+        <v>0.5771886309976092</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5887256381817302</v>
+        <v>0.5828898720675519</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4058754453841025</v>
+        <v>0.4104823109278018</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3810009344901164</v>
+        <v>0.3873943924620381</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4142222732997368</v>
+        <v>0.4122229253529179</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4022749701367297</v>
+        <v>0.4049493992317819</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4397515609420319</v>
+        <v>0.4351920860548828</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4192518602978851</v>
+        <v>0.415708392003611</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4652692489315043</v>
+        <v>0.4634260116786441</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4661363072468863</v>
+        <v>0.4641689651511903</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.7486477457633723</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.7245920264690666</v>
+        <v>0.7245920264690668</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.7766200149556407</v>
@@ -1649,7 +1649,7 @@
         <v>0.7935580375637131</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.7678555966844084</v>
+        <v>0.7678555966844085</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8270560069266663</v>
+        <v>0.8268632092739383</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8175967122012225</v>
+        <v>0.816489304594389</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8289392943667365</v>
+        <v>0.8281580914550353</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7989397497869494</v>
+        <v>0.8000557284757057</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6988692319201895</v>
+        <v>0.7001548348716669</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.714854076230575</v>
+        <v>0.714155050566625</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7345672856744333</v>
+        <v>0.7328845429672535</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7121131892733056</v>
+        <v>0.7125947703636984</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7658304141338215</v>
+        <v>0.7663484795343316</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.7701002813123101</v>
+        <v>0.7679220652449829</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7833676038147005</v>
+        <v>0.7840844914466177</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7598140738137475</v>
+        <v>0.7583420554147771</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8530764651913789</v>
+        <v>0.8523683195355858</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8452096663572957</v>
+        <v>0.843138349045967</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8525843278857751</v>
+        <v>0.8531600939909899</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8252376879860372</v>
+        <v>0.8273050645479573</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7309283245570711</v>
+        <v>0.7301357637525615</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7454579188279417</v>
+        <v>0.7453587071804041</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7644589988507918</v>
+        <v>0.7633474641773632</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7365466000263108</v>
+        <v>0.736538158637827</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7870204204303629</v>
+        <v>0.786570472685741</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7900951318382322</v>
+        <v>0.7890874197700382</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8035835657278116</v>
+        <v>0.8036791583170164</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7774249908741581</v>
+        <v>0.77655269530547</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>465151</v>
+        <v>465454</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>423298</v>
+        <v>423082</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>385359</v>
+        <v>386813</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>379221</v>
+        <v>380927</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>419398</v>
+        <v>418227</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>377586</v>
+        <v>377203</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>364677</v>
+        <v>366587</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>296181</v>
+        <v>299465</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>891222</v>
+        <v>891308</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>805695</v>
+        <v>805384</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>758824</v>
+        <v>758982</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>690017</v>
+        <v>689559</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>481655</v>
+        <v>481251</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>435981</v>
+        <v>435987</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>405177</v>
+        <v>404818</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>404507</v>
+        <v>404562</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>441075</v>
+        <v>441108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>399293</v>
+        <v>399305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>382156</v>
+        <v>382865</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>332899</v>
+        <v>333870</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>919002</v>
+        <v>919503</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>830902</v>
+        <v>831504</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>783400</v>
+        <v>784024</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>733265</v>
+        <v>733115</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>685740</v>
+        <v>686095</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>613968</v>
+        <v>614124</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>546794</v>
+        <v>546085</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>427601</v>
+        <v>427137</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>525714</v>
+        <v>525606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>531354</v>
+        <v>533570</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>507783</v>
+        <v>506215</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>453038</v>
+        <v>453336</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1220761</v>
+        <v>1220664</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1156461</v>
+        <v>1157436</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1058547</v>
+        <v>1061808</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>888744</v>
+        <v>890334</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>709933</v>
+        <v>709977</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>640948</v>
+        <v>641033</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>567770</v>
+        <v>567577</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>455959</v>
+        <v>456109</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>559317</v>
+        <v>559009</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>562502</v>
+        <v>562566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>530412</v>
+        <v>528695</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>477084</v>
+        <v>476870</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1264605</v>
+        <v>1261581</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1195040</v>
+        <v>1196001</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1091096</v>
+        <v>1091974</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>927117</v>
+        <v>926838</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>550635</v>
+        <v>550315</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>590533</v>
+        <v>588709</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>599837</v>
+        <v>596720</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>559304</v>
+        <v>559560</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>536365</v>
+        <v>536673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>569398</v>
+        <v>567342</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>569944</v>
+        <v>570511</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>525433</v>
+        <v>525896</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1098680</v>
+        <v>1100606</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1172734</v>
+        <v>1172254</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1178149</v>
+        <v>1177316</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1093363</v>
+        <v>1090286</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>584073</v>
+        <v>583446</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>621610</v>
+        <v>622729</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>629570</v>
+        <v>627221</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>586461</v>
+        <v>586255</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>578519</v>
+        <v>579369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>610721</v>
+        <v>609299</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>600165</v>
+        <v>600343</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>552473</v>
+        <v>553894</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1152846</v>
+        <v>1153419</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1225088</v>
+        <v>1224098</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1220590</v>
+        <v>1220994</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1133670</v>
+        <v>1130475</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>431642</v>
+        <v>431650</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>496854</v>
+        <v>496136</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>523646</v>
+        <v>520427</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>552251</v>
+        <v>552410</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>356067</v>
+        <v>355118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>444529</v>
+        <v>444671</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>485691</v>
+        <v>484707</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>543922</v>
+        <v>546823</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>798152</v>
+        <v>796806</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>956112</v>
+        <v>953291</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1018747</v>
+        <v>1022695</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1110594</v>
+        <v>1111286</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>463304</v>
+        <v>463912</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>532091</v>
+        <v>534456</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>562498</v>
+        <v>558690</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>593403</v>
+        <v>593596</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>395643</v>
+        <v>395594</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>489916</v>
+        <v>488963</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>529828</v>
+        <v>528911</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>581272</v>
+        <v>582958</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>851896</v>
+        <v>850348</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1015401</v>
+        <v>1012938</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1076461</v>
+        <v>1077142</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1167092</v>
+        <v>1165274</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>257020</v>
+        <v>256401</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>290391</v>
+        <v>290291</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>338378</v>
+        <v>340226</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>407109</v>
+        <v>408288</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>226683</v>
+        <v>225439</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>255065</v>
+        <v>256163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>283500</v>
+        <v>282308</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>375262</v>
+        <v>374499</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>494887</v>
+        <v>493921</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>559151</v>
+        <v>560009</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>636681</v>
+        <v>636011</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>795899</v>
+        <v>796503</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>292219</v>
+        <v>290851</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>329083</v>
+        <v>328349</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>378100</v>
+        <v>378929</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>449279</v>
+        <v>450199</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>263875</v>
+        <v>264984</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>298181</v>
+        <v>297607</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>329451</v>
+        <v>328282</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>411187</v>
+        <v>411509</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>548424</v>
+        <v>546611</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>617400</v>
+        <v>617920</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>695203</v>
+        <v>699751</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>852612</v>
+        <v>851876</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>172655</v>
+        <v>173727</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>186512</v>
+        <v>185591</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>212488</v>
+        <v>210831</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>272706</v>
+        <v>272922</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>122935</v>
+        <v>121851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>158268</v>
+        <v>160374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>170640</v>
+        <v>170921</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>235930</v>
+        <v>238016</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>305995</v>
+        <v>303189</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>357401</v>
+        <v>359738</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>392056</v>
+        <v>392529</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>516879</v>
+        <v>516367</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>202907</v>
+        <v>205812</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>222040</v>
+        <v>222383</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>247478</v>
+        <v>244964</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>303609</v>
+        <v>303572</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>157864</v>
+        <v>158421</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>195687</v>
+        <v>198835</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>208764</v>
+        <v>208559</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>265465</v>
+        <v>266529</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>353698</v>
+        <v>351538</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>412013</v>
+        <v>409794</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>444726</v>
+        <v>443774</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>560640</v>
+        <v>560829</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>83512</v>
+        <v>83775</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>92863</v>
+        <v>94689</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>117607</v>
+        <v>118622</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>152292</v>
+        <v>153037</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>99610</v>
+        <v>99573</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>108731</v>
+        <v>109411</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>121214</v>
+        <v>120774</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>154745</v>
+        <v>156941</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>191565</v>
+        <v>191153</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>216753</v>
+        <v>215235</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>250920</v>
+        <v>248519</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>318491</v>
+        <v>317979</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>111398</v>
+        <v>111913</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>127745</v>
+        <v>128488</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>146920</v>
+        <v>147912</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>182622</v>
+        <v>180811</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>135525</v>
+        <v>137063</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>147799</v>
+        <v>150279</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>165203</v>
+        <v>164406</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>186901</v>
+        <v>188143</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>239133</v>
+        <v>236654</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>266966</v>
+        <v>264710</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>304793</v>
+        <v>303585</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>361166</v>
+        <v>359641</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2707550</v>
+        <v>2706919</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2765460</v>
+        <v>2761715</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2796186</v>
+        <v>2793551</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2822464</v>
+        <v>2826406</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2360367</v>
+        <v>2364709</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2527100</v>
+        <v>2524629</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2581475</v>
+        <v>2575561</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2659643</v>
+        <v>2661442</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5093637</v>
+        <v>5097083</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>5327209</v>
+        <v>5312141</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5395437</v>
+        <v>5400374</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5522041</v>
+        <v>5511343</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2792733</v>
+        <v>2790415</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2858859</v>
+        <v>2851853</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2875946</v>
+        <v>2877888</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2915368</v>
+        <v>2922672</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2468644</v>
+        <v>2465967</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2635288</v>
+        <v>2634938</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2686523</v>
+        <v>2682617</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2750898</v>
+        <v>2750867</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>5234574</v>
+        <v>5231582</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5465524</v>
+        <v>5458553</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5534674</v>
+        <v>5535332</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>5650031</v>
+        <v>5643691</v>
       </c>
     </row>
     <row r="36">
